--- a/template_pegase_v1/hplc.xlsx
+++ b/template_pegase_v1/hplc.xlsx
@@ -14,103 +14,103 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>sampleid</t>
-  </si>
-  <si>
-    <t>sampleportion</t>
-  </si>
-  <si>
-    <t>glu</t>
-  </si>
-  <si>
-    <t>gly</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>nh3</t>
-  </si>
-  <si>
-    <t>asp</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>cys</t>
-  </si>
-  <si>
-    <t>ile</t>
-  </si>
-  <si>
-    <t>rawdatapathway</t>
-  </si>
-  <si>
-    <t>ser</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
-    <t>criticalapparatuscriticalsoftware</t>
-  </si>
-  <si>
-    <t>phe</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>his</t>
-  </si>
-  <si>
-    <t>acys</t>
-  </si>
-  <si>
-    <t>oh_pro</t>
-  </si>
-  <si>
-    <t>ala</t>
-  </si>
-  <si>
-    <t>arg</t>
-  </si>
-  <si>
-    <t>extractiontype</t>
-  </si>
-  <si>
-    <t>leu</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>lys</t>
-  </si>
-  <si>
-    <t>meso</t>
-  </si>
-  <si>
-    <t>criticalproduct</t>
-  </si>
-  <si>
-    <t>tyr</t>
-  </si>
-  <si>
-    <t>laboratoryoperatingmode</t>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
+    <t>ExtractionType</t>
+  </si>
+  <si>
+    <t>OH_pro</t>
+  </si>
+  <si>
+    <t>Acys</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>Cys</t>
+  </si>
+  <si>
+    <t>Glu</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>His</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Leu</t>
+  </si>
+  <si>
+    <t>Lys</t>
+  </si>
+  <si>
+    <t>Meso</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>Nh3</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>Tyr</t>
+  </si>
+  <si>
+    <t>Val</t>
   </si>
   <si>
     <t>#string</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#float</t>
-  </si>
-  <si>
-    <t>#date</t>
   </si>
 </sst>
 </file>
@@ -264,85 +264,85 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/hplc.xlsx
+++ b/template_pegase_v1/hplc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Operator</t>
   </si>
@@ -35,12 +35,12 @@
     <t>RawDataPathway</t>
   </si>
   <si>
+    <t>ExtractionType</t>
+  </si>
+  <si>
     <t>SamplePortion</t>
   </si>
   <si>
-    <t>ExtractionType</t>
-  </si>
-  <si>
     <t>OH_pro</t>
   </si>
   <si>
@@ -110,7 +110,40 @@
     <t>#date</t>
   </si>
   <si>
-    <t>#float</t>
+    <t>#float,  unit:µlormg</t>
+  </si>
+  <si>
+    <t>#float,  unit:g/100g</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t>#TypeExtraction</t>
+  </si>
+  <si>
+    <t>#PriseEssai</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -155,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -276,73 +309,165 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/hplc.xlsx
+++ b/template_pegase_v1/hplc.xlsx
@@ -14,27 +14,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>ExtractionType</t>
   </si>
   <si>
@@ -104,37 +104,37 @@
     <t>Val</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#float,  unit:µlormg</t>
   </si>
   <si>
     <t>#float,  unit:g/100g</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t>#TypeExtraction</t>
@@ -291,25 +291,25 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>

--- a/template_pegase_v1/hplc.xlsx
+++ b/template_pegase_v1/hplc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -104,6 +107,9 @@
     <t>Val</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>#date</t>
   </si>
   <si>
@@ -116,25 +122,28 @@
     <t>#float,  unit:g/100g</t>
   </si>
   <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
   </si>
   <si>
     <t>#TypeExtraction</t>
@@ -144,6 +153,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -188,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -285,189 +297,207 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AD2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/hplc.xlsx
+++ b/template_pegase_v1/hplc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -38,12 +38,6 @@
     <t>SampleID</t>
   </si>
   <si>
-    <t>ExtractionType</t>
-  </si>
-  <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
     <t>OH_pro</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>#string</t>
   </si>
   <si>
-    <t>#float,  unit:µlormg</t>
-  </si>
-  <si>
     <t>#float,  unit:g/100g</t>
   </si>
   <si>
@@ -144,12 +135,6 @@
   </si>
   <si>
     <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t>#TypeExtraction</t>
-  </si>
-  <si>
-    <t>#PriseEssai</t>
   </si>
   <si>
     <t/>
@@ -200,7 +185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -297,207 +282,189 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="s">
         <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/hplc.xlsx
+++ b/template_pegase_v1/hplc.xlsx
@@ -41,18 +41,18 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
+    <t>SamplePortionUnit</t>
+  </si>
+  <si>
+    <t>ResultUnit</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
-    <t>SamplePortionUnit</t>
-  </si>
-  <si>
-    <t>ResultUnit</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -80,18 +80,18 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t># Prise d'essai</t>
+  </si>
+  <si>
+    <t># Unité de mesure de la prise d’essai</t>
+  </si>
+  <si>
+    <t># Unité du résultat</t>
+  </si>
+  <si>
     <t># Commentaire</t>
   </si>
   <si>
-    <t># Prise d'essai</t>
-  </si>
-  <si>
-    <t># Unité de mesure de la prise d’essai</t>
-  </si>
-  <si>
-    <t># Unité du résultat</t>
-  </si>
-  <si>
     <t>#date</t>
   </si>
   <si>
@@ -128,12 +128,12 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
     <t># format: texte libre</t>
   </si>
   <si>
-    <t># format: nombre décimal, ne pas spécifier d'unité</t>
-  </si>
-  <si>
     <t># ex: 12/06/2019</t>
   </si>
   <si>
@@ -161,16 +161,16 @@
     <t># ex: ....</t>
   </si>
   <si>
+    <t># ex: 2.0</t>
+  </si>
+  <si>
+    <t># ex: mg</t>
+  </si>
+  <si>
+    <t># ex: mg/ml</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t># ex: 2.0</t>
-  </si>
-  <si>
-    <t># ex: mg</t>
-  </si>
-  <si>
-    <t># ex: mg/ml</t>
   </si>
 </sst>
 </file>
@@ -332,10 +332,10 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
         <v>27</v>
@@ -376,13 +376,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
